--- a/Project/Phase 2/Sprint2/Burndown chart.xlsx
+++ b/Project/Phase 2/Sprint2/Burndown chart.xlsx
@@ -5,23 +5,27 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmond\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCA8484-C11E-48DE-9038-738A89C3915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398A2BD9-A117-4FFF-A103-7152FEF86A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sprint Burndown Chart</t>
   </si>
@@ -68,6 +72,9 @@
   </si>
   <si>
     <t>Day 5</t>
+  </si>
+  <si>
+    <t>Votação da funcionalidade escolhida</t>
   </si>
 </sst>
 </file>
@@ -163,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -172,13 +179,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -188,51 +195,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -333,29 +295,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -365,89 +318,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -470,160 +340,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,8 +733,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint Burndown Chart</a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Sprint Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -722,21 +777,18 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$B$21:$C$21</c:f>
+              <c:f>'Burndown Chart'!$B$17:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Voto #1 User storie</c:v>
+                  <c:v>Completed Effort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -751,13 +803,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$D$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$21:$G$21</c:f>
+              <c:f>'Burndown Chart'!$D$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -765,7 +858,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8D0E-4F8E-897D-5B1720B3868B}"/>
+              <c16:uniqueId val="{00000005-528A-4FA7-8534-38E4379945A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -777,10 +870,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="1048432767"/>
-        <c:axId val="1048433599"/>
+        <c:gapWidth val="219"/>
+        <c:axId val="963113600"/>
+        <c:axId val="1071795872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -790,14 +882,97 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$B$22:$C$22</c:f>
+              <c:f>'Burndown Chart'!$B$19:$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>Ideal Burndown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$D$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Voto #2 User storie</c:v>
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown Chart'!$D$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-528A-4FA7-8534-38E4379945A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown Chart'!$B$18:$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Remaining Effort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -816,11 +991,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -828,9 +1003,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart'!$D$5:$G$5</c:f>
+              <c:f>'Burndown Chart'!$D$5:$I$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Day 0</c:v>
                 </c:pt>
@@ -842,18 +1017,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$D$22:$G$22</c:f>
+              <c:f>'Burndown Chart'!$D$18:$I$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,75 +1057,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D0E-4F8E-897D-5B1720B3868B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$B$23:$C$23</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Voto #3 User storie</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Burndown Chart'!$D$5:$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Day 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Burndown Chart'!$D$23:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D0E-4F8E-897D-5B1720B3868B}"/>
+              <c16:uniqueId val="{00000004-528A-4FA7-8534-38E4379945A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -943,11 +1071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1048432767"/>
-        <c:axId val="1048433599"/>
+        <c:axId val="963113600"/>
+        <c:axId val="1071795872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1048432767"/>
+        <c:axId val="963113600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1118,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048433599"/>
+        <c:crossAx val="1071795872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,11 +1126,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1048433599"/>
+        <c:axId val="1071795872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="31"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1020,61 +1146,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tasks</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1106,10 +1177,9 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1048432767"/>
+        <c:crossAx val="963113600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1189,19 +1259,16 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1235,7 +1302,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1343,11 +1410,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1358,11 +1420,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1394,9 +1451,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1754,23 +1808,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>420218</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>135591</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484093</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>141195</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BFCA64-3DDA-4711-BDFA-D2973C7C7C4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F9CCE2-FFFA-330F-E042-40135C4E3660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,10 +2145,10 @@
   <sheetPr codeName="Folha1">
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B2:I28"/>
+  <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,550 +2160,442 @@
     <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="30">
         <v>44870</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="30">
         <v>44871</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="30">
         <v>44872</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="4">
         <v>44873</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="4">
         <v>44874</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="34">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="str">
-        <f>"Voto #"&amp;B6&amp;" funcionalidade"</f>
-        <v>Voto #1 funcionalidade</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="21" t="str">
+        <f>"Encontrar #"&amp;B6&amp;" sugestão de funcionalidade"</f>
+        <v>Encontrar #1 sugestão de funcionalidade</v>
+      </c>
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="31"/>
+      <c r="F6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="21" t="str">
-        <f>"Voto #"&amp;B7&amp;" funcionalidade"</f>
-        <v>Voto #2 funcionalidade</v>
-      </c>
-      <c r="D7" s="23">
+        <f t="shared" ref="C7:C15" si="0">"Encontrar #"&amp;B7&amp;" sugestão de funcionalidade"</f>
+        <v>Encontrar #2 sugestão de funcionalidade</v>
+      </c>
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32">
         <v>1</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
       <c r="C8" s="21" t="str">
-        <f>"Voto #"&amp;B8&amp;" funcionalidade"</f>
-        <v>Voto #3 funcionalidade</v>
-      </c>
-      <c r="D8" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #3 sugestão de funcionalidade</v>
+      </c>
+      <c r="D8" s="26">
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="31"/>
+      <c r="F8" s="32">
         <v>1</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" s="21" t="str">
-        <f>"Voto #"&amp;B9&amp;" funcionalidade"</f>
-        <v>Voto #4 funcionalidade</v>
-      </c>
-      <c r="D9" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #4 sugestão de funcionalidade</v>
+      </c>
+      <c r="D9" s="26">
         <v>1</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="21" t="str">
-        <f>"Voto #"&amp;B10&amp;" funcionalidade"</f>
-        <v>Voto #5 funcionalidade</v>
-      </c>
-      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #5 sugestão de funcionalidade</v>
+      </c>
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="31"/>
+      <c r="F10" s="32">
         <v>1</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
       <c r="C11" s="21" t="str">
-        <f>"Sugestao #"&amp;B6&amp;" User storie"</f>
-        <v>Sugestao #1 User storie</v>
-      </c>
-      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #6 sugestão de funcionalidade</v>
+      </c>
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11">
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32">
         <v>1</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
       <c r="C12" s="21" t="str">
-        <f>"Sugestao #"&amp;B7&amp;" User storie"</f>
-        <v>Sugestao #2 User storie</v>
-      </c>
-      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #7 sugestão de funcionalidade</v>
+      </c>
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12">
+      <c r="E12" s="31"/>
+      <c r="F12" s="32">
         <v>1</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
       <c r="C13" s="21" t="str">
-        <f>"Sugestao #"&amp;B8&amp;" User storie"</f>
-        <v>Sugestao #3 User storie</v>
-      </c>
-      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #8 sugestão de funcionalidade</v>
+      </c>
+      <c r="D13" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11">
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32">
         <v>1</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
       <c r="C14" s="21" t="str">
-        <f>"Sugestao #"&amp;B9&amp;" User storie"</f>
-        <v>Sugestao #4 User storie</v>
-      </c>
-      <c r="D14" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #9 sugestão de funcionalidade</v>
+      </c>
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12">
+      <c r="E14" s="31"/>
+      <c r="F14" s="32">
         <v>1</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
       <c r="C15" s="21" t="str">
-        <f>"Sugestao #"&amp;B10&amp;" User storie"</f>
-        <v>Sugestao #5 User storie</v>
-      </c>
-      <c r="D15" s="23">
+        <f t="shared" si="0"/>
+        <v>Encontrar #10 sugestão de funcionalidade</v>
+      </c>
+      <c r="D15" s="27">
         <v>1</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="13">
         <v>1</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="35">
         <v>11</v>
       </c>
-      <c r="C16" s="21" t="str">
-        <f>"Sugestao #"&amp;B11&amp;" User storie"</f>
-        <v>Sugestao #6 User storie</v>
-      </c>
-      <c r="D16" s="23">
+      <c r="C16" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="27">
         <v>1</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="35">
-        <v>12</v>
-      </c>
-      <c r="C17" s="21" t="str">
-        <f>"Sugestao #"&amp;B12&amp;" User storie"</f>
-        <v>Sugestao #7 User storie</v>
-      </c>
-      <c r="D17" s="23">
+    <row r="17" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="39">
+        <f>SUM(E6:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <f>SUM(F6:F16)</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="39">
+        <f>SUM(G6:G16)</f>
+        <v>3</v>
+      </c>
+      <c r="H17" s="40">
+        <f>SUM(H6:H16)</f>
+        <v>2</v>
+      </c>
+      <c r="I17" s="40">
+        <f>SUM(I6:I16)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="11">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="28">
+        <f>SUM(D6:D17)</f>
+        <v>11</v>
+      </c>
+      <c r="E18" s="33">
+        <f>D18-SUM(E6:E16)</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="33">
+        <f>E18-SUM(F6:F16)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="33">
+        <f>F18-SUM(G6:G16)</f>
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <f>G18-SUM(H6:H16)</f>
         <v>1</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="I18" s="5">
+        <f>H18-SUM(I6:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="35">
-        <v>13</v>
-      </c>
-      <c r="C18" s="21" t="str">
-        <f>"Sugestao #"&amp;B13&amp;" User storie"</f>
-        <v>Sugestao #8 User storie</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="29">
+        <f>D18</f>
+        <v>11</v>
+      </c>
+      <c r="E19" s="34">
+        <f>$D$19-($D$19/(COLUMNS(E5:I5))*COLUMNS(E5))</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F19" s="34">
+        <f>$D$19-($D$19/(COLUMNS(E5:I5))*COLUMNS(E5:F5))</f>
+        <v>6.6</v>
+      </c>
+      <c r="G19" s="34">
+        <f>$D$19-($D$19/(COLUMNS(E5:I5))*COLUMNS(E5:G5))</f>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="H19" s="1">
+        <f>$D$19-($D$19/(COLUMNS(E5:I5))*COLUMNS(E5:H5))</f>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="I19" s="1">
+        <f>$D$19-($D$19/(COLUMNS(E5:I5))*COLUMNS(E5:I5))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="35">
-        <v>14</v>
-      </c>
-      <c r="C19" s="21" t="str">
-        <f>"Sugestao #"&amp;B14&amp;" User storie"</f>
-        <v>Sugestao #9 User storie</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="11">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="36">
-        <v>15</v>
-      </c>
-      <c r="C20" s="29" t="str">
-        <f>"Sugestao #"&amp;B15&amp;" User storie"</f>
-        <v>Sugestao #10 User storie</v>
-      </c>
-      <c r="D20" s="30">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33">
-        <v>1</v>
-      </c>
-      <c r="I20" s="33"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
-    <row r="21" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="35">
-        <v>16</v>
-      </c>
-      <c r="C21" s="21" t="str">
-        <f>"Voto #"&amp;B6&amp;" User storie"</f>
-        <v>Voto #1 User storie</v>
-      </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12">
-        <v>1</v>
-      </c>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="35">
-        <v>17</v>
-      </c>
-      <c r="C22" s="21" t="str">
-        <f>"Voto #"&amp;B7&amp;" User storie"</f>
-        <v>Voto #2 User storie</v>
-      </c>
-      <c r="D22" s="23">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
-        <v>1</v>
-      </c>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="35">
-        <v>18</v>
-      </c>
-      <c r="C23" s="21" t="str">
-        <f>"Voto #"&amp;B8&amp;" User storie"</f>
-        <v>Voto #3 User storie</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="35">
-        <v>19</v>
-      </c>
-      <c r="C24" s="21" t="str">
-        <f>"Voto #"&amp;B9&amp;" User storie"</f>
-        <v>Voto #4 User storie</v>
-      </c>
-      <c r="D24" s="23">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36">
-        <v>20</v>
-      </c>
-      <c r="C25" s="29" t="str">
-        <f>"Voto #"&amp;B10&amp;" User storie"</f>
-        <v>Voto #5 User storie</v>
-      </c>
-      <c r="D25" s="30">
-        <v>1</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <f>SUM(E11:E25)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="27">
-        <f>SUM(F11:F25)</f>
-        <v>5</v>
-      </c>
-      <c r="G26" s="28">
-        <f>SUM(G11:G25)</f>
-        <v>3</v>
-      </c>
-      <c r="H26" s="28">
-        <f>SUM(H11:H25)</f>
-        <v>2</v>
-      </c>
-      <c r="I26" s="28">
-        <f>SUM(I11:I25)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="16">
-        <f>SUM(D6:D26)</f>
-        <v>20</v>
-      </c>
-      <c r="E27" s="17">
-        <f>D27-SUM(E11:E25)</f>
-        <v>20</v>
-      </c>
-      <c r="F27" s="15">
-        <f>E27-SUM(F11:F25)</f>
-        <v>15</v>
-      </c>
-      <c r="G27" s="25">
-        <f>F27-SUM(G11:G25)</f>
-        <v>12</v>
-      </c>
-      <c r="H27" s="25">
-        <f>G27-SUM(H11:H25)</f>
-        <v>10</v>
-      </c>
-      <c r="I27" s="25">
-        <f>H27-SUM(I11:I25)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="18">
-        <f>D27</f>
-        <v>20</v>
-      </c>
-      <c r="E28" s="19">
-        <f>$D$23-($D$23/(COLUMNS(E10:G10))*COLUMNS(E10))</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="F28" s="1">
-        <f>$D$23-($D$23/(COLUMNS(E10:G10))*COLUMNS(E10:F10))</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="G28" s="2">
-        <f>$D$23-($D$23/(COLUMNS(E10:G10))*COLUMNS(E10:G10))</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <f>$D$23-($D$23/(COLUMNS(F10:H10))*COLUMNS(F10:H10))</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <f>$D$23-($D$23/(COLUMNS(G10:I10))*COLUMNS(G10:I10))</f>
-        <v>0</v>
-      </c>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="C4:C5"/>
